--- a/Livrables/Matrice.xlsx
+++ b/Livrables/Matrice.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ProjetBI\Livrables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E3AAF1-A36A-4D2B-8639-2952463A6592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24778FE3-0105-4006-A714-699B257AA866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{163DC7AC-57C6-428A-AF38-9B8339229E19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{163DC7AC-57C6-428A-AF38-9B8339229E19}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Industry" sheetId="1" r:id="rId1"/>
+    <sheet name="InternalTrade" sheetId="2" r:id="rId2"/>
+    <sheet name="ExternalTrade" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Industry!$C$2:$H$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="42">
   <si>
     <t>x</t>
   </si>
@@ -57,9 +59,6 @@
     <t>Routes</t>
   </si>
   <si>
-    <t>MarketSales</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -78,9 +77,6 @@
     <t>TotalPersonEngaged</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Imports</t>
   </si>
   <si>
@@ -136,6 +132,39 @@
   </si>
   <si>
     <t>External Business</t>
+  </si>
+  <si>
+    <t>No Active Enterprises</t>
+  </si>
+  <si>
+    <t>Enterpresie Density</t>
+  </si>
+  <si>
+    <t>Enterprise Size</t>
+  </si>
+  <si>
+    <t>Domestic Turnover</t>
+  </si>
+  <si>
+    <t>Avg Turnover</t>
+  </si>
+  <si>
+    <t>Domestic Trade Volume</t>
+  </si>
+  <si>
+    <t>Business Creation Count</t>
+  </si>
+  <si>
+    <t>Business Closure Count</t>
+  </si>
+  <si>
+    <t>Net Business Growth</t>
+  </si>
+  <si>
+    <t>Business Sector</t>
+  </si>
+  <si>
+    <t>Enterprise Status</t>
   </si>
 </sst>
 </file>
@@ -223,22 +252,26 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2DF827-7172-4A8C-B6D4-4980C71EB74B}">
-  <dimension ref="B2:M23"/>
+  <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,49 +608,30 @@
     <col min="4" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
@@ -626,18 +640,13 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
@@ -646,18 +655,13 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
@@ -666,18 +670,13 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="7"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
@@ -686,18 +685,13 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
@@ -706,18 +700,13 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
@@ -726,18 +715,13 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="7"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
@@ -746,18 +730,13 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
         <v>0</v>
       </c>
@@ -768,106 +747,81 @@
         <v>0</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="7" t="s">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="7" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="7" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="2" t="s">
         <v>0</v>
       </c>
@@ -878,18 +832,13 @@
       <c r="H15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="7"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="2" t="s">
         <v>0</v>
       </c>
@@ -900,18 +849,13 @@
       <c r="H16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="7"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="2" t="s">
         <v>0</v>
       </c>
@@ -922,18 +866,13 @@
       <c r="H17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="C18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="7"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="2" t="s">
         <v>0</v>
       </c>
@@ -944,133 +883,45 @@
       <c r="H18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C23" s="8"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
+  <mergeCells count="17">
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B3:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -1078,6 +929,381 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAD9A8C-C05C-43CF-A9C9-0D6E9670439F}">
+  <dimension ref="B2:J11"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CC0644-AAD1-4D3D-8616-C0A7D254A968}">
+  <dimension ref="B3:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
